--- a/webcrawler/5_servents.xlsx
+++ b/webcrawler/5_servents.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F178"/>
+  <dimension ref="A1:F186"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -918,7 +918,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Grandcaster</t>
+          <t>Loregrandcaster</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -4627,7 +4627,11 @@
           <t>幼體／提亞馬特</t>
         </is>
       </c>
-      <c r="F150" t="inlineStr"/>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>幼體／迪亞馬特</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
@@ -4651,7 +4655,11 @@
           <t>所多瑪之獸／德拉科</t>
         </is>
       </c>
-      <c r="F151" t="inlineStr"/>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>所多瑪之獸／德拉科</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
@@ -4675,7 +4683,11 @@
           <t>果心居士</t>
         </is>
       </c>
-      <c r="F152" t="inlineStr"/>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>果心居士</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
@@ -4699,7 +4711,11 @@
           <t>怖軍</t>
         </is>
       </c>
-      <c r="F153" t="inlineStr"/>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>怖軍</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
@@ -4723,7 +4739,11 @@
           <t>杜爾伽</t>
         </is>
       </c>
-      <c r="F154" t="inlineStr"/>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>杜爾迦</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
@@ -4747,7 +4767,11 @@
           <t>美杜莎</t>
         </is>
       </c>
-      <c r="F155" t="inlineStr"/>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>美杜莎</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
@@ -4771,7 +4795,11 @@
           <t>雨之魔女梣</t>
         </is>
       </c>
-      <c r="F156" t="inlineStr"/>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>雨之魔女托內莉可</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
@@ -4795,7 +4823,11 @@
           <t>阿爾託莉雅·卡斯特</t>
         </is>
       </c>
-      <c r="F157" t="inlineStr"/>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>阿爾托莉亞．Caster</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
@@ -4819,7 +4851,11 @@
           <t>梅柳齊娜</t>
         </is>
       </c>
-      <c r="F158" t="inlineStr"/>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>美露莘</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
@@ -4843,7 +4879,11 @@
           <t>旺吉娜</t>
         </is>
       </c>
-      <c r="F159" t="inlineStr"/>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>旺吉娜</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
@@ -4958,7 +4998,11 @@
           <t>源頼光／丑御前</t>
         </is>
       </c>
-      <c r="E164" t="inlineStr"/>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>源賴光／醜御前</t>
+        </is>
+      </c>
       <c r="F164" t="inlineStr"/>
     </row>
     <row r="165">
@@ -4978,7 +5022,11 @@
           <t>アンドロメダ</t>
         </is>
       </c>
-      <c r="E165" t="inlineStr"/>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>安德洛墨達</t>
+        </is>
+      </c>
       <c r="F165" t="inlineStr"/>
     </row>
     <row r="166">
@@ -4998,7 +5046,11 @@
           <t>マリー・アントワネット〔オルタ〕</t>
         </is>
       </c>
-      <c r="E166" t="inlineStr"/>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>瑪麗·安託瓦內特〔Alter〕</t>
+        </is>
+      </c>
       <c r="F166" t="inlineStr"/>
     </row>
     <row r="167">
@@ -5018,7 +5070,11 @@
           <t>巌窟王　モンテ・クリスト</t>
         </is>
       </c>
-      <c r="E167" t="inlineStr"/>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>巖窟王　基督山</t>
+        </is>
+      </c>
       <c r="F167" t="inlineStr"/>
     </row>
     <row r="168">
@@ -5038,7 +5094,11 @@
           <t>蒼崎青子</t>
         </is>
       </c>
-      <c r="E168" t="inlineStr"/>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>蒼崎青子</t>
+        </is>
+      </c>
       <c r="F168" t="inlineStr"/>
     </row>
     <row r="169">
@@ -5058,7 +5118,11 @@
           <t>久遠寺有珠</t>
         </is>
       </c>
-      <c r="E169" t="inlineStr"/>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>久遠寺有珠</t>
+        </is>
+      </c>
       <c r="F169" t="inlineStr"/>
     </row>
     <row r="170">
@@ -5078,7 +5142,11 @@
           <t>ひびき＆千鍵</t>
         </is>
       </c>
-      <c r="E170" t="inlineStr"/>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>響＆千鍵</t>
+        </is>
+      </c>
       <c r="F170" t="inlineStr"/>
     </row>
     <row r="171">
@@ -5098,7 +5166,11 @@
           <t>エレシュキガル</t>
         </is>
       </c>
-      <c r="E171" t="inlineStr"/>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>埃列什基伽勒</t>
+        </is>
+      </c>
       <c r="F171" t="inlineStr"/>
     </row>
     <row r="172">
@@ -5240,6 +5312,166 @@
       </c>
       <c r="E178" t="inlineStr"/>
       <c r="F178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>433</v>
+      </c>
+      <c r="B179" t="n">
+        <v>5</v>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Lancer</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>ビショーネ</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr"/>
+      <c r="F179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>435</v>
+      </c>
+      <c r="B180" t="n">
+        <v>5</v>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Caster</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>小野小町</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr"/>
+      <c r="F180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>437</v>
+      </c>
+      <c r="B181" t="n">
+        <v>5</v>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Pretender</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>ダンテ・アリギエーリ</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr"/>
+      <c r="F181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>438</v>
+      </c>
+      <c r="B182" t="n">
+        <v>5</v>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>Ruler</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>メタトロン・ジャンヌ</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr"/>
+      <c r="F182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>440</v>
+      </c>
+      <c r="B183" t="n">
+        <v>5</v>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>Berserker</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>リリス</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr"/>
+      <c r="F183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>441</v>
+      </c>
+      <c r="B184" t="n">
+        <v>5</v>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>Pretender</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>テュフォン・エフェメロス</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr"/>
+      <c r="F184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>442</v>
+      </c>
+      <c r="B185" t="n">
+        <v>5</v>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>Lancer</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>インドラ</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr"/>
+      <c r="F185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>444</v>
+      </c>
+      <c r="B186" t="n">
+        <v>5</v>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>Ｕ－オルガマリー</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr"/>
+      <c r="F186" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/webcrawler/5_servents.xlsx
+++ b/webcrawler/5_servents.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F186"/>
+  <dimension ref="A1:F192"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4907,7 +4907,11 @@
           <t>托勒密</t>
         </is>
       </c>
-      <c r="F160" t="inlineStr"/>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>托勒密</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
@@ -4931,7 +4935,11 @@
           <t>武田晴信</t>
         </is>
       </c>
-      <c r="F161" t="inlineStr"/>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>武田晴信</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
@@ -4955,7 +4963,11 @@
           <t>上杉謙信</t>
         </is>
       </c>
-      <c r="F162" t="inlineStr"/>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>上杉謙信</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
@@ -5190,7 +5202,11 @@
           <t>謎の代行者C.I.E.L</t>
         </is>
       </c>
-      <c r="E172" t="inlineStr"/>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>謎之代行者C.I.E.L</t>
+        </is>
+      </c>
       <c r="F172" t="inlineStr"/>
     </row>
     <row r="173">
@@ -5210,7 +5226,11 @@
           <t>ＢＢドバイ</t>
         </is>
       </c>
-      <c r="E173" t="inlineStr"/>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>ＢＢ迪拜</t>
+        </is>
+      </c>
       <c r="F173" t="inlineStr"/>
     </row>
     <row r="174">
@@ -5462,7 +5482,7 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>Unbeastolgamarie</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
@@ -5472,6 +5492,126 @@
       </c>
       <c r="E186" t="inlineStr"/>
       <c r="F186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>445</v>
+      </c>
+      <c r="B187" t="n">
+        <v>5</v>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>Saber</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>パッションリップ</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr"/>
+      <c r="F187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>448</v>
+      </c>
+      <c r="B188" t="n">
+        <v>5</v>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>Mooncancer</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>玉兎</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr"/>
+      <c r="F188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>450</v>
+      </c>
+      <c r="B189" t="n">
+        <v>5</v>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Archer</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>ラーヴァ／ティアマト</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr"/>
+      <c r="F189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>452</v>
+      </c>
+      <c r="B190" t="n">
+        <v>5</v>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>Rider</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>ネモ／ノア</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr"/>
+      <c r="F190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>453</v>
+      </c>
+      <c r="B191" t="n">
+        <v>5</v>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>Assassin</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>河上彦斎</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr"/>
+      <c r="F191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>456</v>
+      </c>
+      <c r="B192" t="n">
+        <v>5</v>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>Saber</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>近藤勇</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr"/>
+      <c r="F192" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
